--- a/main/data/trade_info.xlsx
+++ b/main/data/trade_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lkw\Desktop\git-lkw\QuantTrading\main\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B98D815-FB7C-4BAE-935C-53EA9046ED02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B43550EA-9B5B-4677-93F2-7ADE28221D48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10128" yWindow="804" windowWidth="11736" windowHeight="11400" xr2:uid="{F394614B-2856-4B27-A12C-CF36E9BADAD2}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>VAA</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,12 +104,51 @@
   </si>
   <si>
     <t>HYG </t>
+  </si>
+  <si>
+    <t>IWM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VGK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VNQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VWO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-06-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="177" formatCode="0_ "/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -155,14 +194,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -479,20 +524,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B31A45E7-3713-4EF6-BA47-171F148D68E2}">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:Z4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.8984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.8984375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B1" t="s">
@@ -504,13 +549,13 @@
       <c r="D1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="H1" t="s">
@@ -519,13 +564,13 @@
       <c r="I1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K1" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M1" t="s">
@@ -535,130 +580,283 @@
         <v>4</v>
       </c>
       <c r="O1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" t="s">
         <v>11</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" t="s">
         <v>12</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>3</v>
       </c>
+      <c r="U1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V1" t="s">
+        <v>24</v>
+      </c>
+      <c r="W1" t="s">
+        <v>25</v>
+      </c>
+      <c r="X1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A2" s="1">
-        <v>44713</v>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A2" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0</v>
+      </c>
+      <c r="J2" s="3">
+        <v>0</v>
+      </c>
+      <c r="K2" s="3">
+        <v>0</v>
+      </c>
+      <c r="L2" s="3">
+        <v>0</v>
+      </c>
+      <c r="M2" s="3">
+        <v>0</v>
+      </c>
+      <c r="N2" s="3">
+        <v>0</v>
+      </c>
+      <c r="O2" s="3">
+        <v>0</v>
+      </c>
+      <c r="P2" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>0</v>
+      </c>
+      <c r="R2" s="3">
+        <v>0</v>
+      </c>
+      <c r="S2" s="3">
+        <v>0</v>
+      </c>
+      <c r="T2" s="3">
         <v>1000</v>
       </c>
+      <c r="U2" s="3">
+        <v>0</v>
+      </c>
+      <c r="V2" s="3">
+        <v>0</v>
+      </c>
+      <c r="W2" s="3">
+        <v>0</v>
+      </c>
+      <c r="X2" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="3">
+        <f>SUM(C2:Y2)</f>
+        <v>1000</v>
+      </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A3" s="1">
-        <v>44713</v>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A3" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="K3">
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0</v>
+      </c>
+      <c r="K3" s="3">
         <v>250</v>
       </c>
-      <c r="M3">
+      <c r="L3" s="3">
+        <v>0</v>
+      </c>
+      <c r="M3" s="3">
         <v>250</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="3">
         <v>250</v>
       </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
+      <c r="O3" s="3">
+        <v>0</v>
+      </c>
+      <c r="P3" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="3">
         <v>250</v>
       </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
+      <c r="R3" s="3">
+        <v>0</v>
+      </c>
+      <c r="S3" s="3">
+        <v>0</v>
+      </c>
+      <c r="T3" s="3">
+        <v>0</v>
+      </c>
+      <c r="U3" s="3">
+        <v>0</v>
+      </c>
+      <c r="V3" s="3">
+        <v>0</v>
+      </c>
+      <c r="W3" s="3">
+        <v>0</v>
+      </c>
+      <c r="X3" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="3">
+        <f t="shared" ref="Z3:Z4" si="0">SUM(C3:Y3)</f>
+        <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A4" s="1">
-        <v>44713</v>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A4" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>1000</v>
       </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0</v>
+      </c>
+      <c r="N4" s="3">
+        <v>0</v>
+      </c>
+      <c r="O4" s="3">
+        <v>0</v>
+      </c>
+      <c r="P4" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>0</v>
+      </c>
+      <c r="R4" s="3">
+        <v>0</v>
+      </c>
+      <c r="S4" s="3">
+        <v>0</v>
+      </c>
+      <c r="T4" s="3">
+        <v>0</v>
+      </c>
+      <c r="U4" s="3">
+        <v>0</v>
+      </c>
+      <c r="V4" s="3">
+        <v>0</v>
+      </c>
+      <c r="W4" s="3">
+        <v>0</v>
+      </c>
+      <c r="X4" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="3">
+        <f t="shared" si="0"/>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
